--- a/素材/策划案.xlsx
+++ b/素材/策划案.xlsx
@@ -11,13 +11,14 @@
     <sheet name="符箓" sheetId="1" r:id="rId2"/>
     <sheet name="状态效果" sheetId="3" r:id="rId3"/>
     <sheet name="其它道具" sheetId="4" r:id="rId4"/>
+    <sheet name="符阵" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
   <si>
     <t>分类</t>
   </si>
@@ -82,7 +83,7 @@
     <t>投掷类</t>
   </si>
   <si>
-    <t>起爆符</t>
+    <t>敕字符</t>
   </si>
   <si>
     <t>explode_talisman</t>
@@ -106,7 +107,7 @@
     <t>传送使用者至符箓落点或与被击中实体交换位置</t>
   </si>
   <si>
-    <t>火球符</t>
+    <t>火符</t>
   </si>
   <si>
     <t>fireball_talisman</t>
@@ -118,7 +119,7 @@
     <t>砸中的实体会获得15s灼烧效果</t>
   </si>
   <si>
-    <t>定神符</t>
+    <t>锁字符</t>
   </si>
   <si>
     <t>immobility_talisman</t>
@@ -148,13 +149,13 @@
     <t>dighole_talisman</t>
   </si>
   <si>
-    <t>傀儡符</t>
+    <t>尸符</t>
   </si>
   <si>
     <t>puppet_talisman</t>
   </si>
   <si>
-    <t>分身符</t>
+    <t>替身符</t>
   </si>
   <si>
     <t>separation_talisman</t>
@@ -166,9 +167,31 @@
     <t>thunder_talisman</t>
   </si>
   <si>
+    <t>静音符</t>
+  </si>
+  <si>
     <t>_talisman</t>
   </si>
   <si>
+    <t>搬山符</t>
+  </si>
+  <si>
+    <t>御水符</t>
+  </si>
+  <si>
+    <t>灭字符</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+天爆符</t>
+  </si>
+  <si>
+    <t>换装符</t>
+  </si>
+  <si>
+    <t>换装符可储存一套装备，右键瞬间与身上装备替换，一张换装符最多能替换装备5次，超出了这个数，符就会炸。</t>
+  </si>
+  <si>
     <t>效果</t>
   </si>
   <si>
@@ -188,6 +211,93 @@
   </si>
   <si>
     <t>右键提取经验变成附魔之瓶</t>
+  </si>
+  <si>
+    <t>万化百炼符</t>
+  </si>
+  <si>
+    <t>有序</t>
+  </si>
+  <si>
+    <t>下界合金</t>
+  </si>
+  <si>
+    <t>钻石</t>
+  </si>
+  <si>
+    <t>把自己掌握的灵符每样都存一个为母符，用母符映射，随心所变，每张万化百炼符都能想是什么符就是什么符，且能无限使用，但会消耗经验</t>
+  </si>
+  <si>
+    <t>绿宝石</t>
+  </si>
+  <si>
+    <t>金锭</t>
+  </si>
+  <si>
+    <t>指令</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/zhen bw </t>
+  </si>
+  <si>
+    <t>百万灵符阵</t>
+  </si>
+  <si>
+    <t>众多敕字符组成的阵法，爆炸起来威力惊人。</t>
+  </si>
+  <si>
+    <t>敕字符*256，同时消耗60点经验</t>
+  </si>
+  <si>
+    <t>/zhen sy</t>
+  </si>
+  <si>
+    <t>万符锁妖大阵</t>
+  </si>
+  <si>
+    <t>定身符组成的大阵，威力远超单张定身符。</t>
+  </si>
+  <si>
+    <t>定身符*256，同时消耗60点经验</t>
+  </si>
+  <si>
+    <t>/zhen tg</t>
+  </si>
+  <si>
+    <t>天罡符阵</t>
+  </si>
+  <si>
+    <t>由数量巨大的回春符组合而成，具有惊人的防御力，能够抵挡灭字符。</t>
+  </si>
+  <si>
+    <t>回春符*256，同时消耗60点经验</t>
+  </si>
+  <si>
+    <t>/zhen hf</t>
+  </si>
+  <si>
+    <t>护符连阵</t>
+  </si>
+  <si>
+    <t>由数张回春符组成，可以在极短时间内使出。</t>
+  </si>
+  <si>
+    <t>回春符*16，同时消耗3点经验</t>
+  </si>
+  <si>
+    <t>/zhen mq</t>
+  </si>
+  <si>
+    <t>灭字符阵·群星陨落</t>
+  </si>
+  <si>
+    <t>由数量众多的灭字符组成。仅一击就可以摧毁末地主岛，且无视基岩与黑曜石。</t>
+  </si>
+  <si>
+    <t>灭字符*128，同时消耗120点经验</t>
   </si>
 </sst>
 </file>
@@ -195,9 +305,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -218,13 +328,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -239,7 +342,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,36 +358,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,10 +372,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,6 +384,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,14 +411,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -341,7 +420,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -354,8 +449,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,19 +480,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -400,13 +546,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,7 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,31 +600,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,25 +630,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,37 +648,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,7 +683,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -586,9 +698,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -790,21 +900,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -819,21 +914,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -855,20 +935,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -882,6 +966,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -890,6 +989,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -898,10 +1008,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,144 +1020,168 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1065,6 +1199,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1083,27 +1220,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1113,7 +1250,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1124,6 +1261,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1447,7 +1593,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:I7"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
@@ -1455,434 +1601,434 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="48.5" customWidth="1"/>
+    <col min="9" max="9" width="48.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="1" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="24" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="19"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="24"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="39"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1" t="s">
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7">
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15">
         <v>2</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="19"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="8" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="2"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="19"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="2"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="19"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="2"/>
+      <c r="A8" s="37"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="2"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="19"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="2"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="19"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="16"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="19"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="19"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="19"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="19"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="19"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="19"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="19"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="19"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="19"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="19"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="19"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="19"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="19"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="19"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="19"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="19"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="19"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="19"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="19"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="19"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="19"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="19"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="20"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -1954,1037 +2100,1046 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="H47" sqref="H47:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9" style="16"/>
-    <col min="3" max="3" width="19.6583333333333" style="16" customWidth="1"/>
-    <col min="4" max="6" width="8.425" style="16" customWidth="1"/>
-    <col min="7" max="7" width="11.0916666666667" style="16" customWidth="1"/>
-    <col min="8" max="8" width="14.6" style="16" customWidth="1"/>
-    <col min="9" max="9" width="44.6583333333333" style="16" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="16"/>
+    <col min="1" max="1" width="9" style="24"/>
+    <col min="2" max="2" width="9" style="22"/>
+    <col min="3" max="3" width="19.6583333333333" style="22" customWidth="1"/>
+    <col min="4" max="6" width="8.425" style="22" customWidth="1"/>
+    <col min="7" max="7" width="11.0916666666667" style="22" customWidth="1"/>
+    <col min="8" max="8" width="14.6" style="22" customWidth="1"/>
+    <col min="9" max="9" width="44.6583333333333" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+    <row r="1" s="24" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="17" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="15">
         <v>5</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="10">
         <v>30</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="19"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="19"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="10" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="16"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="19"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="15">
         <v>5</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="10">
         <v>40</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="16" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="19"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="8" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="16"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="19"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="16"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="19"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="2">
+      <c r="F8" s="14"/>
+      <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="10">
         <v>5</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="19"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="19"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="16"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="19"/>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="2">
+      <c r="F11" s="14"/>
+      <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="10">
         <v>6</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="19"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="8" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="16"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="19"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="11" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="16"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="19"/>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="16"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="19"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="2" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="16"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="19"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="16"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="19"/>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="16"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="19"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="2" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="16"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="19"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="16"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="19"/>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="19"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="2" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="16"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="19"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="16"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="19"/>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="16"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="19"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="2" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="16"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="19"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="16"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="19"/>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="16"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="19"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="2" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="16"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="19"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="16"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="19"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="16"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="19"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="2" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="16"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="20"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="16"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="17"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="C32" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="16"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="17"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="2" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="16"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="17"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="16"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="17"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="12"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="17"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="2" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="16"/>
     </row>
     <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="17"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="16"/>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="17"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="16"/>
     </row>
     <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="17"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="2" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="16"/>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="17"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="17"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="16"/>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="17"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="2" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="16"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="17"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="16"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="17"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="16"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="17"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="2" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="16"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="17"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="16"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="17"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47" s="12"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="17"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="2" t="s">
+      <c r="A48" s="25"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="16"/>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="17"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="16"/>
     </row>
     <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="17"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="16"/>
     </row>
     <row r="51" customHeight="1" spans="1:9">
-      <c r="A51" s="17"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="2" t="s">
+      <c r="A51" s="25"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="16"/>
     </row>
     <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="17"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="16"/>
     </row>
     <row r="53" customHeight="1" spans="1:9">
-      <c r="A53" s="17"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="16"/>
     </row>
     <row r="54" customHeight="1" spans="1:9">
-      <c r="A54" s="17"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="2" t="s">
+      <c r="A54" s="25"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="16"/>
     </row>
     <row r="55" customHeight="1" spans="1:9">
-      <c r="A55" s="17"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="16"/>
     </row>
     <row r="56" customHeight="1" spans="1:9">
-      <c r="A56" s="17"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="16"/>
     </row>
     <row r="57" customHeight="1" spans="1:9">
-      <c r="A57" s="17"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="2" t="s">
+      <c r="A57" s="25"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="16"/>
     </row>
     <row r="58" customHeight="1" spans="1:9">
-      <c r="A58" s="17"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="16"/>
     </row>
     <row r="59" customHeight="1" spans="1:9">
-      <c r="A59" s="17"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="16"/>
     </row>
     <row r="60" customHeight="1" spans="1:9">
-      <c r="A60" s="17"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="2" t="s">
+      <c r="A60" s="25"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="16"/>
     </row>
     <row r="61" customHeight="1" spans="1:9">
-      <c r="A61" s="17"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="16"/>
     </row>
     <row r="62" customHeight="1" spans="1:9">
-      <c r="A62" s="17"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D62" s="12"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="16"/>
     </row>
     <row r="63" customHeight="1" spans="1:9">
-      <c r="A63" s="17"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="2" t="s">
+      <c r="A63" s="25"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="16"/>
     </row>
     <row r="64" customHeight="1" spans="1:9">
-      <c r="A64" s="17"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="16"/>
     </row>
     <row r="65" customHeight="1" spans="1:9">
-      <c r="A65" s="17"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="5"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="12"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="16"/>
     </row>
     <row r="66" customHeight="1" spans="1:9">
-      <c r="A66" s="17"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="2" t="s">
+      <c r="A66" s="25"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="10"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="16"/>
     </row>
     <row r="67" customHeight="1" spans="1:9">
-      <c r="A67" s="17"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="10"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="16"/>
     </row>
     <row r="68" customHeight="1" spans="1:9">
-      <c r="A68" s="17"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" s="4"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" s="12"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="16"/>
     </row>
     <row r="69" customHeight="1" spans="1:9">
-      <c r="A69" s="17"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="2" t="s">
+      <c r="A69" s="25"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="10"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="16"/>
     </row>
     <row r="70" customHeight="1" spans="1:9">
-      <c r="A70" s="17"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="19"/>
+      <c r="E70" s="20"/>
+      <c r="F70" s="21"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="16"/>
     </row>
     <row r="71" customHeight="1" spans="1:9">
-      <c r="A71" s="17"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" s="4"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D71" s="12"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="16"/>
     </row>
     <row r="72" customHeight="1" spans="1:9">
-      <c r="A72" s="17"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="2" t="s">
+      <c r="A72" s="25"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="16"/>
     </row>
     <row r="73" customHeight="1" spans="1:9">
-      <c r="A73" s="17"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="12"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="21"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="136">
+  <mergeCells count="131">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:A31"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A37"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A2:A46"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A53:A55"/>
@@ -3126,138 +3281,138 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C1" sqref="C$1:C$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="2" width="12.5" style="13" customWidth="1"/>
-    <col min="3" max="3" width="45.75" style="13" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="22"/>
+    <col min="2" max="2" width="12.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="14" t="s">
-        <v>50</v>
+      <c r="C1" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>53</v>
+      <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="16"/>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="16"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="16"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="16"/>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="16"/>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="16"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="16"/>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="16"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="16"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3268,97 +3423,455 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
+    <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="57.125" customWidth="1"/>
+    <col min="8" max="8" width="57.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7">
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15">
         <v>4</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>56</v>
+      <c r="H2" s="16" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="8" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="11" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="2"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="15">
+        <v>1</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="5"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="11">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
     <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
     <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
     <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="36" customHeight="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="13.625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:4">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:4">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:4">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:4">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:4">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:4">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:4">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:4">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:4">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:4">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:4">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:4">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:4">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:4">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/素材/策划案.xlsx
+++ b/素材/策划案.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="129">
   <si>
     <t>分类</t>
   </si>
@@ -50,6 +50,12 @@
     <t>基础材料</t>
   </si>
   <si>
+    <t>朱砂</t>
+  </si>
+  <si>
+    <t>cinnabar</t>
+  </si>
+  <si>
     <t>合成</t>
   </si>
   <si>
@@ -77,6 +83,33 @@
     <t>纸</t>
   </si>
   <si>
+    <t>初级符墨</t>
+  </si>
+  <si>
+    <t>ink_primary</t>
+  </si>
+  <si>
+    <t>符箓的基础材料，可使用10次</t>
+  </si>
+  <si>
+    <t>墨囊</t>
+  </si>
+  <si>
+    <t>初级符笔</t>
+  </si>
+  <si>
+    <t>pen_primary</t>
+  </si>
+  <si>
+    <t>有序</t>
+  </si>
+  <si>
+    <t>竹子</t>
+  </si>
+  <si>
+    <t>羽毛</t>
+  </si>
+  <si>
     <t>需要经验值</t>
   </si>
   <si>
@@ -137,16 +170,10 @@
     <t>treatment_talisman</t>
   </si>
   <si>
-    <t>土牢符</t>
-  </si>
-  <si>
-    <t>prison_talisman</t>
-  </si>
-  <si>
-    <t>陷地符</t>
-  </si>
-  <si>
-    <t>dighole_talisman</t>
+    <t>恶魂之泪</t>
+  </si>
+  <si>
+    <t>落点为圆心半径5m的生物增加20%生命值并获得抗药效果5s，怪物无效。</t>
   </si>
   <si>
     <t>尸符</t>
@@ -155,43 +182,118 @@
     <t>puppet_talisman</t>
   </si>
   <si>
+    <t>僵尸头颅</t>
+  </si>
+  <si>
+    <t>召唤三个仅对自己友好的僵尸</t>
+  </si>
+  <si>
+    <t>腐肉</t>
+  </si>
+  <si>
     <t>替身符</t>
   </si>
   <si>
     <t>separation_talisman</t>
   </si>
   <si>
+    <t>玩家头颅</t>
+  </si>
+  <si>
+    <t>召唤一个与自己一般的生物</t>
+  </si>
+  <si>
+    <t>煤炭</t>
+  </si>
+  <si>
     <t>雷霄符</t>
   </si>
   <si>
     <t>thunder_talisman</t>
   </si>
   <si>
+    <t>铁锭</t>
+  </si>
+  <si>
+    <t>召唤一个闪电</t>
+  </si>
+  <si>
     <t>静音符</t>
   </si>
   <si>
-    <t>_talisman</t>
+    <t>mute_talisman</t>
+  </si>
+  <si>
+    <t>海绵</t>
+  </si>
+  <si>
+    <t>落点为圆心半径5m的实体将发不出任何声音</t>
   </si>
   <si>
     <t>搬山符</t>
   </si>
   <si>
+    <t>carry_talisman</t>
+  </si>
+  <si>
+    <t>鞍</t>
+  </si>
+  <si>
+    <t>右键使箱子、熔炉、木桶变为带NBT的物品，可用15次</t>
+  </si>
+  <si>
     <t>御水符</t>
   </si>
   <si>
+    <t>water_ball_talisman</t>
+  </si>
+  <si>
+    <t>水瓶</t>
+  </si>
+  <si>
+    <t>被击中的生物氧气值清零并窒息3s</t>
+  </si>
+  <si>
     <t>灭字符</t>
+  </si>
+  <si>
+    <t>doom_talisman</t>
+  </si>
+  <si>
+    <t>天爆符</t>
+  </si>
+  <si>
+    <t>你见过这么大威力的符吗？相当于64个TNT</t>
   </si>
   <si>
     <t xml:space="preserve">
 天爆符</t>
   </si>
   <si>
+    <t>huge_explosion_talisman</t>
+  </si>
+  <si>
+    <t>你见过这么大的符吗？相当于8个TNT</t>
+  </si>
+  <si>
+    <t>自我施放类</t>
+  </si>
+  <si>
     <t>换装符</t>
   </si>
   <si>
+    <t>change_clothing_talisman</t>
+  </si>
+  <si>
+    <t>盔甲架</t>
+  </si>
+  <si>
     <t>换装符可储存一套装备，右键瞬间与身上装备替换，一张换装符最多能替换装备5次，超出了这个数，符就会炸。</t>
   </si>
   <si>
+    <t>_talisman</t>
+  </si>
+  <si>
     <t>效果</t>
   </si>
   <si>
@@ -204,6 +306,15 @@
     <t>周围出现火焰粒子，每秒减少血量1点，无视防具</t>
   </si>
   <si>
+    <t>抗药</t>
+  </si>
+  <si>
+    <t>antidote</t>
+  </si>
+  <si>
+    <t>除自然生命恢复外，任何手段均无法恢复生命值</t>
+  </si>
+  <si>
     <t>导魔瓶</t>
   </si>
   <si>
@@ -214,9 +325,6 @@
   </si>
   <si>
     <t>万化百炼符</t>
-  </si>
-  <si>
-    <t>有序</t>
   </si>
   <si>
     <t>下界合金</t>
@@ -305,10 +413,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -341,6 +449,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -349,7 +479,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,10 +510,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -411,6 +549,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -420,45 +566,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -480,7 +588,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,31 +648,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,7 +666,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,7 +714,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,7 +738,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,19 +756,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,73 +768,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,69 +1008,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -990,6 +1035,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1008,10 +1116,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1020,137 +1128,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1181,9 +1289,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1199,9 +1304,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1217,28 +1319,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1592,8 +1691,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
@@ -1614,13 +1713,13 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="9" t="s">
         <v>4</v>
       </c>
@@ -1629,33 +1728,41 @@
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="39" t="s">
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="36" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="39"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="36" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="8" t="s">
@@ -1668,15 +1775,15 @@
         <v>2</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>4</v>
@@ -1684,351 +1791,383 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15">
+      <c r="C5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="14">
         <v>2</v>
       </c>
-      <c r="I5" s="16" t="s">
-        <v>17</v>
+      <c r="I5" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="37"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="17" t="s">
+      <c r="A6" s="34"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:9">
+      <c r="A7" s="34"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="34"/>
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="34"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="37"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="37"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="37"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="37"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="37"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="16"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="37"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="16"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="37"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="16"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="37"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="16"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="37"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="16"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="37"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="16"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="37"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="16"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="37"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="16"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="37"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="16"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="37"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="16"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="37"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="16"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="37"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="16"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="37"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="16"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="37"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="16"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="37"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="16"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="37"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="16"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="37"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="16"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="37"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="16"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="37"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="16"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="37"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="16"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="37"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="16"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="37"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="16"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="37"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="16"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="38"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="16"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -2097,1049 +2236,1100 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47:H49"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="24"/>
-    <col min="2" max="2" width="9" style="22"/>
-    <col min="3" max="3" width="19.6583333333333" style="22" customWidth="1"/>
-    <col min="4" max="6" width="8.425" style="22" customWidth="1"/>
-    <col min="7" max="7" width="11.0916666666667" style="22" customWidth="1"/>
-    <col min="8" max="8" width="14.6" style="22" customWidth="1"/>
-    <col min="9" max="9" width="44.6583333333333" style="23" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="3.65" style="21" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="25.8416666666667" style="1" customWidth="1"/>
+    <col min="4" max="6" width="8.425" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.0916666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6" style="1" customWidth="1"/>
+    <col min="9" max="9" width="44.6583333333333" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="24" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="20" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="29" t="s">
+      <c r="G1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="14">
+        <v>5</v>
+      </c>
+      <c r="H2" s="5">
+        <v>30</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:9">
+      <c r="A3" s="22"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:9">
+      <c r="A4" s="22"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:9">
+      <c r="A5" s="22"/>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="14">
+        <v>5</v>
+      </c>
+      <c r="H5" s="5">
+        <v>40</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:9">
+      <c r="A6" s="22"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:9">
+      <c r="A7" s="22"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="22"/>
+      <c r="B8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="22"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:9">
+      <c r="A10" s="22"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:9">
+      <c r="A11" s="22"/>
+      <c r="B11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>6</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:9">
+      <c r="A12" s="22"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:9">
+      <c r="A13" s="22"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:9">
+      <c r="A14" s="22"/>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>6</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:9">
+      <c r="A15" s="22"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:9">
+      <c r="A16" s="22"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:9">
+      <c r="A17" s="22"/>
+      <c r="B17" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>6</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:9">
+      <c r="A18" s="22"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:9">
+      <c r="A19" s="22"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:9">
+      <c r="A20" s="22"/>
+      <c r="B20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="5">
+        <v>1</v>
+      </c>
+      <c r="H20" s="5">
+        <v>6</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:9">
+      <c r="A21" s="22"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="15">
-        <v>5</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="E21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:9">
+      <c r="A22" s="22"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:9">
+      <c r="A23" s="22"/>
+      <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="5">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5">
+        <v>6</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:9">
+      <c r="A24" s="22"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:9">
+      <c r="A25" s="22"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="19"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:9">
+      <c r="A26" s="22"/>
+      <c r="B26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="5">
+        <v>1</v>
+      </c>
+      <c r="H26" s="5">
+        <v>6</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:9">
+      <c r="A27" s="22"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:9">
+      <c r="A28" s="22"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:9">
+      <c r="A29" s="22"/>
+      <c r="B29" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="13"/>
+      <c r="G29" s="5">
+        <v>1</v>
+      </c>
+      <c r="H29" s="5">
+        <v>6</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:9">
+      <c r="A30" s="22"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="16"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" s="22"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:9">
+      <c r="A32" s="22"/>
+      <c r="B32" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="13"/>
+      <c r="G32" s="5">
+        <v>1</v>
+      </c>
+      <c r="H32" s="5">
+        <v>6</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:9">
+      <c r="A33" s="22"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" s="16"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:9">
+      <c r="A34" s="22"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:9">
+      <c r="A35" s="22"/>
+      <c r="B35" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="5">
+        <v>1</v>
+      </c>
+      <c r="H35" s="5">
+        <v>50</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" s="22"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:9">
+      <c r="A37" s="22"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:9">
+      <c r="A38" s="22"/>
+      <c r="B38" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="5">
+        <v>1</v>
+      </c>
+      <c r="H38" s="5">
         <v>30</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="27"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="16"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="27"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="16"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="27"/>
-      <c r="B5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="15">
-        <v>5</v>
-      </c>
-      <c r="H5" s="10">
-        <v>40</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="27"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="16"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="27"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="16"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="27"/>
-      <c r="B8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="10">
+      <c r="I38" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:9">
+      <c r="A39" s="22"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:9">
+      <c r="A40" s="23"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:9">
+      <c r="A41" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="5">
         <v>1</v>
       </c>
-      <c r="H8" s="10">
-        <v>5</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="27"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="27"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="27"/>
-      <c r="B11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="10">
-        <v>1</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="H41" s="5">
         <v>6</v>
       </c>
-      <c r="I11" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="27"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="27"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="21"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="16"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="27"/>
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="16"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="27"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="16"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="27"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="16"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="27"/>
-      <c r="B17" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="16"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="27"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="16"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="27"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="16"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="27"/>
-      <c r="B20" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="16"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="27"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="16"/>
-    </row>
-    <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="27"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="16"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="27"/>
-      <c r="B23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="16"/>
-    </row>
-    <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="27"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="16"/>
-    </row>
-    <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="27"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="27"/>
-      <c r="B26" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="16"/>
-    </row>
-    <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="27"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="16"/>
-    </row>
-    <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="27"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="16"/>
-    </row>
-    <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="27"/>
-      <c r="B29" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="16"/>
-    </row>
-    <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="27"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="16"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="27"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="16"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="27"/>
-      <c r="B32" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="16"/>
-    </row>
-    <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="27"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="18"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="16"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="27"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="16"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="27"/>
-      <c r="B35" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="16"/>
-    </row>
-    <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="27"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" s="18"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="16"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="27"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="16"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="27"/>
-      <c r="B38" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="16"/>
-    </row>
-    <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="27"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="16"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="27"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="27"/>
-      <c r="B41" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="16"/>
+      <c r="I41" s="6" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="27"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="18"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="16"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="27"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="16"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="19"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="27"/>
-      <c r="B44" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="16"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="27"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F45" s="18"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="16"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="16"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="28"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="16"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="25"/>
-      <c r="B47" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="16" t="s">
-        <v>56</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="25"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="16"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="25"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="16"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="25"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="16"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" customHeight="1" spans="1:9">
-      <c r="A51" s="25"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="18"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="16"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="25"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="16"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="19"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" customHeight="1" spans="1:9">
-      <c r="A53" s="25"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="16"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" customHeight="1" spans="1:9">
-      <c r="A54" s="25"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" s="18"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="16"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" customHeight="1" spans="1:9">
-      <c r="A55" s="25"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="16"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="19"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" customHeight="1" spans="1:9">
-      <c r="A56" s="25"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="16"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="5"/>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" customHeight="1" spans="1:9">
-      <c r="A57" s="25"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" s="18"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="16"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="16"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" customHeight="1" spans="1:9">
-      <c r="A58" s="25"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="16"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" customHeight="1" spans="1:9">
-      <c r="A59" s="25"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="13"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="16"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+      <c r="I59" s="6"/>
     </row>
     <row r="60" customHeight="1" spans="1:9">
-      <c r="A60" s="25"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" s="18"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="16"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60" s="16"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="6"/>
     </row>
     <row r="61" customHeight="1" spans="1:9">
-      <c r="A61" s="25"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="16"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" customHeight="1" spans="1:9">
-      <c r="A62" s="25"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="13"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="16"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" customHeight="1" spans="1:9">
-      <c r="A63" s="25"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F63" s="18"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="16"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63" s="16"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" customHeight="1" spans="1:9">
-      <c r="A64" s="25"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="16"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="19"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" customHeight="1" spans="1:9">
-      <c r="A65" s="25"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="13"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="16"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" customHeight="1" spans="1:9">
-      <c r="A66" s="25"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F66" s="18"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="16"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="16"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" customHeight="1" spans="1:9">
-      <c r="A67" s="25"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="16"/>
-    </row>
-    <row r="68" customHeight="1" spans="1:9">
-      <c r="A68" s="25"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="13"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="16"/>
-    </row>
-    <row r="69" customHeight="1" spans="1:9">
-      <c r="A69" s="25"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F69" s="18"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="16"/>
-    </row>
-    <row r="70" customHeight="1" spans="1:9">
-      <c r="A70" s="25"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="16"/>
-    </row>
-    <row r="71" customHeight="1" spans="1:9">
-      <c r="A71" s="25"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="16"/>
-    </row>
-    <row r="72" customHeight="1" spans="1:9">
-      <c r="A72" s="25"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F72" s="18"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="16"/>
-    </row>
-    <row r="73" customHeight="1" spans="1:9">
-      <c r="A73" s="25"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="16"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="131">
+  <mergeCells count="120">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="A2:A46"/>
+    <mergeCell ref="A2:A40"/>
+    <mergeCell ref="A41:A46"/>
     <mergeCell ref="A47:A49"/>
     <mergeCell ref="A50:A52"/>
     <mergeCell ref="A53:A55"/>
@@ -3147,8 +3337,6 @@
     <mergeCell ref="A59:A61"/>
     <mergeCell ref="A62:A64"/>
     <mergeCell ref="A65:A67"/>
-    <mergeCell ref="A68:A70"/>
-    <mergeCell ref="A71:A73"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
@@ -3171,8 +3359,6 @@
     <mergeCell ref="B59:B61"/>
     <mergeCell ref="B62:B64"/>
     <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B68:B70"/>
-    <mergeCell ref="B71:B73"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="C8:C10"/>
@@ -3195,8 +3381,6 @@
     <mergeCell ref="C59:C61"/>
     <mergeCell ref="C62:C64"/>
     <mergeCell ref="C65:C67"/>
-    <mergeCell ref="C68:C70"/>
-    <mergeCell ref="C71:C73"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="G8:G10"/>
@@ -3219,8 +3403,6 @@
     <mergeCell ref="G59:G61"/>
     <mergeCell ref="G62:G64"/>
     <mergeCell ref="G65:G67"/>
-    <mergeCell ref="G68:G70"/>
-    <mergeCell ref="G71:G73"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H5:H7"/>
     <mergeCell ref="H8:H10"/>
@@ -3243,8 +3425,6 @@
     <mergeCell ref="H59:H61"/>
     <mergeCell ref="H62:H64"/>
     <mergeCell ref="H65:H67"/>
-    <mergeCell ref="H68:H70"/>
-    <mergeCell ref="H71:H73"/>
     <mergeCell ref="I2:I4"/>
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="I8:I10"/>
@@ -3267,8 +3447,6 @@
     <mergeCell ref="I59:I61"/>
     <mergeCell ref="I62:I64"/>
     <mergeCell ref="I65:I67"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="I71:I73"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3281,138 +3459,144 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="22"/>
-    <col min="2" max="2" width="12.5" style="22" customWidth="1"/>
-    <col min="3" max="3" width="45.75" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>57</v>
+      <c r="C1" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>60</v>
+      <c r="A2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="16"/>
+      <c r="A3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="16"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="16"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="16"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="16"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="16"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="16"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="16"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="16"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="16"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="16"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="16"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="16"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="16"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="16"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3445,123 +3629,123 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="15">
+      <c r="A2" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14">
         <v>4</v>
       </c>
-      <c r="H2" s="16" t="s">
-        <v>63</v>
+      <c r="H2" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="17" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="16"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="G5" s="15">
+      <c r="F5" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="G5" s="14">
         <v>1</v>
       </c>
-      <c r="H5" s="16" t="s">
-        <v>68</v>
+      <c r="H5" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="5"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="17" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
       <c r="A7" s="5"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="20" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="14"/>
+      <c r="H7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3602,86 +3786,86 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>76</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">

--- a/素材/策划案.xlsx
+++ b/素材/策划案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="10740" activeTab="1"/>
+    <workbookView windowWidth="18525" windowHeight="10740" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,17 @@
     <sheet name="状态效果" sheetId="3" r:id="rId3"/>
     <sheet name="其它道具" sheetId="4" r:id="rId4"/>
     <sheet name="符阵" sheetId="5" r:id="rId5"/>
+    <sheet name="实用方块" sheetId="7" r:id="rId6"/>
+    <sheet name="装饰方块" sheetId="6" r:id="rId7"/>
+    <sheet name="盔甲" sheetId="8" r:id="rId8"/>
+    <sheet name="生物" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="167">
   <si>
     <t>分类</t>
   </si>
@@ -342,6 +346,21 @@
     <t>金锭</t>
   </si>
   <si>
+    <t>香</t>
+  </si>
+  <si>
+    <t>incense</t>
+  </si>
+  <si>
+    <t>金合欢木板</t>
+  </si>
+  <si>
+    <t>右键香炉插入</t>
+  </si>
+  <si>
+    <t>木棍</t>
+  </si>
+  <si>
     <t>指令</t>
   </si>
   <si>
@@ -406,6 +425,107 @@
   </si>
   <si>
     <t>灭字符*128，同时消耗120点经验</t>
+  </si>
+  <si>
+    <t>制符台</t>
+  </si>
+  <si>
+    <t>talisman_crafting_table</t>
+  </si>
+  <si>
+    <t>制作符箓的合成台</t>
+  </si>
+  <si>
+    <t>木台阶</t>
+  </si>
+  <si>
+    <t>木板</t>
+  </si>
+  <si>
+    <t>门</t>
+  </si>
+  <si>
+    <t>木头</t>
+  </si>
+  <si>
+    <t>窗</t>
+  </si>
+  <si>
+    <t>床</t>
+  </si>
+  <si>
+    <t>屏风</t>
+  </si>
+  <si>
+    <t>栅栏</t>
+  </si>
+  <si>
+    <t>桌</t>
+  </si>
+  <si>
+    <t>椅</t>
+  </si>
+  <si>
+    <t>柜</t>
+  </si>
+  <si>
+    <t>木桶</t>
+  </si>
+  <si>
+    <t>蒲团</t>
+  </si>
+  <si>
+    <t>每秒为坐在上面的玩家提供6点经验</t>
+  </si>
+  <si>
+    <t>白色羊毛</t>
+  </si>
+  <si>
+    <t>黄色羊毛</t>
+  </si>
+  <si>
+    <t>黑色羊毛</t>
+  </si>
+  <si>
+    <t>香炉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">插入香时提供等同红石火把的光源，同时每秒为半径5格内的玩家提供3点经验，一炷香可以燃烧60分钟
+</t>
+  </si>
+  <si>
+    <t>沙子</t>
+  </si>
+  <si>
+    <t>棋盘</t>
+  </si>
+  <si>
+    <t>放置后右键可以在围棋与象棋直接切换</t>
+  </si>
+  <si>
+    <t>线</t>
+  </si>
+  <si>
+    <t>道袍</t>
+  </si>
+  <si>
+    <t>raoist_robe_helmet</t>
+  </si>
+  <si>
+    <t>蓝色羊毛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">提供等同于钻石甲的防御值且每秒为玩家增加1点经验值
+</t>
+  </si>
+  <si>
+    <t>raoist_robe_chestplate</t>
+  </si>
+  <si>
+    <t>raoist_robe_boots</t>
+  </si>
+  <si>
+    <t>raoist_robe_leggings</t>
   </si>
 </sst>
 </file>
@@ -413,10 +533,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -435,8 +555,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -450,54 +592,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,9 +607,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,14 +627,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -566,6 +656,36 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -588,13 +708,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,115 +744,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -738,7 +762,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +792,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,13 +882,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,16 +988,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -963,17 +1081,19 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1011,6 +1131,69 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1035,69 +1218,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1116,10 +1236,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1128,155 +1248,233 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1284,62 +1482,17 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1361,10 +1514,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1691,7 +1844,7 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1700,474 +1853,474 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="48.5" style="7" customWidth="1"/>
+    <col min="9" max="9" width="48.5" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="9" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="36" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="47" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="34"/>
-      <c r="B3" s="30" t="s">
+      <c r="A3" s="45"/>
+      <c r="B3" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="36" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="47" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="14">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="28">
         <v>2</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="34"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="15" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="6"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="34"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="6"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="34"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="45"/>
+      <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14">
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="28">
         <v>2</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="34"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="15" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="6"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="34"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="6"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="34"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="45"/>
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="12" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="5">
+      <c r="G11" s="8"/>
+      <c r="H11" s="12">
         <v>1</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="34"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="5" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="34"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18" t="s">
+      <c r="A13" s="45"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="34"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="34"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="34"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="34"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="34"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="34"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="34"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="32"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="34"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="34"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="34"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="32"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="34"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="34"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="34"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="32"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="34"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="34"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="34"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="32"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="34"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="32"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="34"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="32"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="34"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="32"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="34"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="32"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="35"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -2238,1092 +2391,1092 @@
   <sheetPr/>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.65" style="21" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="25.8416666666667" style="1" customWidth="1"/>
-    <col min="4" max="6" width="8.425" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.0916666666667" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6" style="1" customWidth="1"/>
-    <col min="9" max="9" width="44.6583333333333" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="6.175" style="35" customWidth="1"/>
+    <col min="2" max="2" width="9" style="24"/>
+    <col min="3" max="3" width="25.8416666666667" style="24" customWidth="1"/>
+    <col min="4" max="6" width="8.425" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11.0916666666667" style="24" customWidth="1"/>
+    <col min="8" max="8" width="14.6" style="24" customWidth="1"/>
+    <col min="9" max="9" width="44.6583333333333" style="31" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="20" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="23" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="28">
         <v>5</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="12">
         <v>30</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="32" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="22"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="15" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="22"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="17" t="s">
+      <c r="A4" s="36"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="32"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="22"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="36"/>
+      <c r="B5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="28">
         <v>5</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="12">
         <v>40</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="22"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="15" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="22"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="36"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="22"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="5">
+      <c r="F8" s="8"/>
+      <c r="G8" s="12">
         <v>1</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="12">
         <v>5</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="32" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="15" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="22"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18" t="s">
+      <c r="A10" s="36"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="6"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="32"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="22"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="5">
+      <c r="F11" s="8"/>
+      <c r="G11" s="12">
         <v>1</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="12">
         <v>6</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="32" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="22"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="15" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="22"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="18" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="22"/>
-      <c r="B14" s="5" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="5">
+      <c r="F14" s="8"/>
+      <c r="G14" s="12">
         <v>1</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="12">
         <v>6</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="32" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="22"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="5" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="22"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="22"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="5">
+      <c r="F17" s="8"/>
+      <c r="G17" s="12">
         <v>1</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="12">
         <v>6</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="22"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="15" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="F18" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="32"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="22"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="18" t="s">
+      <c r="A19" s="36"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="19"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="22"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="5">
+      <c r="F20" s="8"/>
+      <c r="G20" s="12">
         <v>1</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="12">
         <v>6</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="32" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="22"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="15" t="s">
+      <c r="A21" s="36"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="16" t="s">
+      <c r="F21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="6"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="32"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="22"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="18" t="s">
+      <c r="A22" s="36"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="32"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="22"/>
-      <c r="B23" s="5" t="s">
+      <c r="A23" s="36"/>
+      <c r="B23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="5">
+      <c r="F23" s="8"/>
+      <c r="G23" s="12">
         <v>1</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="12">
         <v>6</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="32" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="22"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="5" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="16"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="32"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="22"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="18" t="s">
+      <c r="A25" s="36"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="32"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="22"/>
-      <c r="B26" s="5" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="5">
+      <c r="F26" s="8"/>
+      <c r="G26" s="12">
         <v>1</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="12">
         <v>6</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="32" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="22"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="5" t="s">
+      <c r="A27" s="36"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="32"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="22"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="32"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="22"/>
-      <c r="B29" s="5" t="s">
+      <c r="A29" s="36"/>
+      <c r="B29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="12" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="5">
+      <c r="F29" s="8"/>
+      <c r="G29" s="12">
         <v>1</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="12">
+        <v>40</v>
+      </c>
+      <c r="I29" s="32" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:9">
+      <c r="A30" s="36"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="32"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:9">
+      <c r="A31" s="36"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="32"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:9">
+      <c r="A32" s="36"/>
+      <c r="B32" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="12">
         <v>6</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="22"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="5" t="s">
+      <c r="I32" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:9">
+      <c r="A33" s="36"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="22"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="22"/>
-      <c r="B32" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="5">
+      <c r="F33" s="13"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:9">
+      <c r="A34" s="36"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:9">
+      <c r="A35" s="36"/>
+      <c r="B35" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="12">
         <v>1</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H35" s="12">
+        <v>50</v>
+      </c>
+      <c r="I35" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:9">
+      <c r="A36" s="36"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:9">
+      <c r="A37" s="36"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="32"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:9">
+      <c r="A38" s="36"/>
+      <c r="B38" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="12">
+        <v>1</v>
+      </c>
+      <c r="H38" s="12">
+        <v>30</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:9">
+      <c r="A39" s="36"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:9">
+      <c r="A40" s="37"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:9">
+      <c r="A41" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="12">
+        <v>1</v>
+      </c>
+      <c r="H41" s="12">
         <v>6</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="22"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="5" t="s">
+      <c r="I41" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:9">
+      <c r="A42" s="36"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="22"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="22"/>
-      <c r="B35" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G35" s="5">
-        <v>1</v>
-      </c>
-      <c r="H35" s="5">
-        <v>50</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="22"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="F42" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:9">
+      <c r="A43" s="36"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="17"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:9">
+      <c r="A44" s="36"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:9">
+      <c r="A45" s="36"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="22"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="22"/>
-      <c r="B38" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="5">
-        <v>1</v>
-      </c>
-      <c r="H38" s="5">
-        <v>30</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="22"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="F45" s="13"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:9">
+      <c r="A46" s="37"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:9">
+      <c r="A47" s="25"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:9">
+      <c r="A48" s="25"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="23"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="5">
-        <v>1</v>
-      </c>
-      <c r="H41" s="5">
-        <v>6</v>
-      </c>
-      <c r="I41" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="25"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="F48" s="13"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:9">
+      <c r="A49" s="25"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:9">
+      <c r="A50" s="25"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:9">
+      <c r="A51" s="25"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="25"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F43" s="19"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="25"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5" t="s">
+      <c r="F51" s="13"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:9">
+      <c r="A52" s="25"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:9">
+      <c r="A53" s="25"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="11"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="25"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="5" t="s">
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="32"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:9">
+      <c r="A54" s="25"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="16"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="26"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5" t="s">
+      <c r="F54" s="13"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="32"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:9">
+      <c r="A55" s="25"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="32"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:9">
+      <c r="A56" s="25"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="5" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="32"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:9">
+      <c r="A57" s="25"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5" t="s">
+      <c r="F57" s="13"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="32"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:9">
+      <c r="A58" s="25"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="32"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:9">
+      <c r="A59" s="25"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="6"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:9">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="5" t="s">
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="32"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:9">
+      <c r="A60" s="25"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="6"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="4"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="6"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:9">
-      <c r="A53" s="4"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="5" t="s">
+      <c r="F60" s="13"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="32"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:9">
+      <c r="A61" s="25"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="32"/>
+    </row>
+    <row r="62" customHeight="1" spans="1:9">
+      <c r="A62" s="25"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="6"/>
-    </row>
-    <row r="54" customHeight="1" spans="1:9">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="5" t="s">
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="32"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:9">
+      <c r="A63" s="25"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="6"/>
-    </row>
-    <row r="55" customHeight="1" spans="1:9">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="6"/>
-    </row>
-    <row r="56" customHeight="1" spans="1:9">
-      <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5" t="s">
+      <c r="F63" s="13"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="32"/>
+    </row>
+    <row r="64" customHeight="1" spans="1:9">
+      <c r="A64" s="25"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="32"/>
+    </row>
+    <row r="65" customHeight="1" spans="1:9">
+      <c r="A65" s="25"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="6"/>
-    </row>
-    <row r="57" customHeight="1" spans="1:9">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="5" t="s">
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="32"/>
+    </row>
+    <row r="66" customHeight="1" spans="1:9">
+      <c r="A66" s="25"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="16"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="6"/>
-    </row>
-    <row r="58" customHeight="1" spans="1:9">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="6"/>
-    </row>
-    <row r="59" customHeight="1" spans="1:9">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="12"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="6"/>
-    </row>
-    <row r="60" customHeight="1" spans="1:9">
-      <c r="A60" s="4"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="6"/>
-    </row>
-    <row r="61" customHeight="1" spans="1:9">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="6"/>
-    </row>
-    <row r="62" customHeight="1" spans="1:9">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D62" s="11"/>
-      <c r="E62" s="12"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="6"/>
-    </row>
-    <row r="63" customHeight="1" spans="1:9">
-      <c r="A63" s="4"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" s="16"/>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="6"/>
-    </row>
-    <row r="64" customHeight="1" spans="1:9">
-      <c r="A64" s="4"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="6"/>
-    </row>
-    <row r="65" customHeight="1" spans="1:9">
-      <c r="A65" s="4"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="12"/>
-      <c r="F65" s="13"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="6"/>
-    </row>
-    <row r="66" customHeight="1" spans="1:9">
-      <c r="A66" s="4"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="6"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="32"/>
     </row>
     <row r="67" customHeight="1" spans="1:9">
-      <c r="A67" s="4"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="6"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -3464,139 +3617,139 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="12.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.75" style="2" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="24"/>
+    <col min="2" max="2" width="12.5" style="24" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="24"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="32" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="32" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="32" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="32"/>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="32"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="32"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="32"/>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="32"/>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="32"/>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="32"/>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="32"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="32"/>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="32"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="32"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="32"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="32"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="32"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="32"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="32"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="32"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="32"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3607,159 +3760,211 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1" outlineLevelRow="6" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10.625" customWidth="1"/>
     <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="4" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="57.125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="57.125" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="34" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="14">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="28">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="32" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="5"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="15" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="16" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="32"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="28">
         <v>1</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="32" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="15" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="32"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="17" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="32"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="28">
+        <v>1</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="32"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="16">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
     <mergeCell ref="C2:C4"/>
     <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
     <mergeCell ref="G2:G4"/>
     <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
     <mergeCell ref="H2:H4"/>
     <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3772,290 +3977,1727 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="36" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="13.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="31" style="24" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="31" customWidth="1"/>
+    <col min="5" max="16384" width="13.625" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>108</v>
+      <c r="D1" s="25" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>112</v>
+      <c r="A2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>116</v>
+      <c r="A3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>120</v>
+      <c r="A4" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>124</v>
+      <c r="A5" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>128</v>
+      <c r="A6" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="3" max="3" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
+    <col min="8" max="8" width="35.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="23" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="24" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="27"/>
+      <c r="B2" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="28">
+        <v>1</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" s="24" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A3" s="27"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" s="24" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="27"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="27"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="27"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="27"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="27"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="27"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="27"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="27"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="27"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="27"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="27"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="27"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="27"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:8">
+      <c r="A17" s="27"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
+      <c r="A18" s="27"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="27"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="27"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="27"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
+      <c r="A22" s="27"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
+      <c r="A23" s="27"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="29"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
+      <c r="A24" s="27"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" s="27"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:8">
+      <c r="A26" s="27"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:8">
+      <c r="A27" s="27"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="29"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:8">
+      <c r="A28" s="27"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="27"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="29"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:8">
+      <c r="A30" s="27"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:8">
+      <c r="A31" s="27"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H29:H31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="7" max="7" width="16.25" customWidth="1"/>
+    <col min="8" max="8" width="36.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="23" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" s="24" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="27"/>
+      <c r="B2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28">
+        <v>3</v>
+      </c>
+      <c r="H2" s="29"/>
+    </row>
+    <row r="3" s="24" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A3" s="27"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" s="24" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="27"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="27"/>
+      <c r="B5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="28">
+        <v>1</v>
+      </c>
+      <c r="H5" s="29"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="27"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="27"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="27"/>
+      <c r="B8" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G8" s="28">
+        <v>1</v>
+      </c>
+      <c r="H8" s="29"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="27"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="27"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="29"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="27"/>
+      <c r="B11" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="28">
+        <v>1</v>
+      </c>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="27"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:8">
+      <c r="A13" s="27"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:8">
+      <c r="A14" s="27"/>
+      <c r="B14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="28">
+        <v>1</v>
+      </c>
+      <c r="H14" s="29"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:8">
+      <c r="A15" s="27"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:8">
+      <c r="A16" s="27"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:8">
+      <c r="A17" s="27"/>
+      <c r="B17" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="28">
+        <v>2</v>
+      </c>
+      <c r="H17" s="29"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:8">
+      <c r="A18" s="27"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:8">
+      <c r="A19" s="27"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:8">
+      <c r="A20" s="27"/>
+      <c r="B20" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="G20" s="28">
+        <v>2</v>
+      </c>
+      <c r="H20" s="29"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:8">
+      <c r="A21" s="27"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="29"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:8">
+      <c r="A22" s="27"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="29"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:8">
+      <c r="A23" s="27"/>
+      <c r="B23" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="28">
+        <v>4</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:8">
+      <c r="A24" s="27"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="G24" s="28"/>
+      <c r="H24" s="29"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:8">
+      <c r="A25" s="27"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="29"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:8">
+      <c r="A26" s="27"/>
+      <c r="B26" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="28">
+        <v>1</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:8">
+      <c r="A27" s="27"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="28"/>
+      <c r="H27" s="30"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:8">
+      <c r="A28" s="27"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="30"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:8">
+      <c r="A29" s="27"/>
+      <c r="B29" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="28">
+        <v>1</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:8">
+      <c r="A30" s="27"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" s="28"/>
+      <c r="H30" s="29"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:8">
+      <c r="A31" s="27"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G31" s="28"/>
+      <c r="H31" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="51">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G17:G19"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G25"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H11:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="H29:H31"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="28" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="10"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="18"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="19"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="12"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="12"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="21"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="12"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="12"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="12"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="22"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="12"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="20"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="12"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="12"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="22"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:6">
+      <c r="A23" s="12"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="12"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:6">
+      <c r="A25" s="12"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:6">
+      <c r="A26" s="12"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:6">
+      <c r="A27" s="12"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
+      <c r="A28" s="12"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="22"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="12"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:6">
+      <c r="A30" s="12"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="21"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="12"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="22"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="12"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
+      <c r="A33" s="12"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="12"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="22"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:6">
+      <c r="A35" s="12"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:6">
+      <c r="A36" s="12"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:6">
+      <c r="A37" s="12"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A37"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="F2:F13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F25"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F35:F37"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/素材/策划案.xlsx
+++ b/素材/策划案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="10740" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="18525" windowHeight="10740" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="170">
   <si>
     <t>分类</t>
   </si>
@@ -526,6 +526,15 @@
   </si>
   <si>
     <t>raoist_robe_leggings</t>
+  </si>
+  <si>
+    <t>中国僵尸</t>
+  </si>
+  <si>
+    <t>chinese_zombie</t>
+  </si>
+  <si>
+    <t>中国传统僵尸形象</t>
   </si>
 </sst>
 </file>
@@ -533,14 +542,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -555,30 +571,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,6 +586,44 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -599,9 +631,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -615,6 +647,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -623,16 +670,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -654,39 +701,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,7 +724,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -720,25 +760,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,18 +784,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -775,24 +791,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +808,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,7 +844,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,19 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,31 +898,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1131,16 +1147,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1157,6 +1173,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,8 +1210,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,30 +1221,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1228,6 +1235,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1236,10 +1252,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,147 +1264,150 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1421,9 +1440,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1436,70 +1452,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1514,10 +1506,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1853,474 +1845,474 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="48.5" style="33" customWidth="1"/>
+    <col min="9" max="9" width="48.5" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="34" t="s">
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="42" t="s">
+      <c r="D2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="47" t="s">
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="45"/>
-      <c r="B3" s="41" t="s">
+      <c r="A3" s="37"/>
+      <c r="B3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="47" t="s">
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="39" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="28">
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="22">
         <v>2</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="23" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="45"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="11" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="32"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="45"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="12"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="13"/>
       <c r="E7" s="15"/>
       <c r="F7" s="16"/>
       <c r="G7" s="17"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="32"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="45"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="28">
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="22">
         <v>2</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="45"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="28"/>
-      <c r="I9" s="32"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="45"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="12"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="15"/>
       <c r="F10" s="16"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="32"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="45"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="7" t="s">
+      <c r="E11" s="7"/>
+      <c r="F11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="12">
+      <c r="G11" s="9"/>
+      <c r="H11" s="13">
         <v>1</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="23" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="45"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="32"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="45"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="15"/>
       <c r="F13" s="16" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="17"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="32"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="45"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="32"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="23"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="45"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="32"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="45"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="15"/>
       <c r="F16" s="16"/>
       <c r="G16" s="17"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="32"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="45"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="32"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="23"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="45"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="32"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="45"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
       <c r="E19" s="15"/>
       <c r="F19" s="16"/>
       <c r="G19" s="17"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="32"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="45"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="32"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="23"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="45"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="32"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="45"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
       <c r="E22" s="15"/>
       <c r="F22" s="16"/>
       <c r="G22" s="17"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="32"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="45"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="32"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="23"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="45"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="32"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="45"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
       <c r="E25" s="15"/>
       <c r="F25" s="16"/>
       <c r="G25" s="17"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="32"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="23"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="45"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="32"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="23"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="45"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="32"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="45"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
       <c r="E28" s="15"/>
       <c r="F28" s="16"/>
       <c r="G28" s="17"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="32"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="45"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="32"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="23"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="45"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="32"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="45"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="15"/>
       <c r="F31" s="16"/>
       <c r="G31" s="17"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="32"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="45"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="32"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="23"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="45"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="32"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="46"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
       <c r="E34" s="15"/>
       <c r="F34" s="16"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="32"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -2397,91 +2389,91 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.175" style="35" customWidth="1"/>
-    <col min="2" max="2" width="9" style="24"/>
-    <col min="3" max="3" width="25.8416666666667" style="24" customWidth="1"/>
-    <col min="4" max="6" width="8.425" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.0916666666667" style="24" customWidth="1"/>
-    <col min="8" max="8" width="14.6" style="24" customWidth="1"/>
-    <col min="9" max="9" width="44.6583333333333" style="31" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="6.175" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9" style="20"/>
+    <col min="3" max="3" width="25.8416666666667" style="20" customWidth="1"/>
+    <col min="4" max="6" width="8.425" style="20" customWidth="1"/>
+    <col min="7" max="7" width="11.0916666666667" style="20" customWidth="1"/>
+    <col min="8" max="8" width="14.6" style="20" customWidth="1"/>
+    <col min="9" max="9" width="44.6583333333333" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="22">
         <v>5</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="13">
         <v>30</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="23" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="36"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="32"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="23"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="36"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="5"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="15" t="s">
         <v>16</v>
       </c>
@@ -2491,58 +2483,58 @@
       <c r="F4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="32"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="23"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="36"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="22">
         <v>5</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="13">
         <v>40</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="23" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="36"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="11" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="32"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="23"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="36"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="15" t="s">
         <v>16</v>
       </c>
@@ -2552,507 +2544,507 @@
       <c r="F7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="32"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="36"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="12">
+      <c r="F8" s="9"/>
+      <c r="G8" s="13">
         <v>1</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="13">
         <v>5</v>
       </c>
-      <c r="I8" s="32" t="s">
+      <c r="I8" s="23" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="36"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="32"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="36"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16" t="s">
         <v>42</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="32"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="36"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="28"/>
+      <c r="B11" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7" t="s">
+      <c r="D11" s="7"/>
+      <c r="E11" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="12">
+      <c r="F11" s="9"/>
+      <c r="G11" s="13">
         <v>1</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="13">
         <v>6</v>
       </c>
-      <c r="I11" s="32" t="s">
+      <c r="I11" s="23" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="36"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="32"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="23"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="36"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16" t="s">
         <v>46</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="32"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="23"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="36"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="28"/>
+      <c r="B14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="12">
+      <c r="F14" s="9"/>
+      <c r="G14" s="13">
         <v>1</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="13">
         <v>6</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="23" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="36"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12" t="s">
+      <c r="A15" s="28"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="32"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="23"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="36"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="32"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="23"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="36"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="12">
+      <c r="F17" s="9"/>
+      <c r="G17" s="13">
         <v>1</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="13">
         <v>6</v>
       </c>
-      <c r="I17" s="32" t="s">
+      <c r="I17" s="23" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="36"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="11" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="32"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="23"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="36"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="15"/>
       <c r="E19" s="16" t="s">
         <v>56</v>
       </c>
       <c r="F19" s="17"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="32"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="23"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="36"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="28"/>
+      <c r="B20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7" t="s">
+      <c r="D20" s="7"/>
+      <c r="E20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="12">
+      <c r="F20" s="9"/>
+      <c r="G20" s="13">
         <v>1</v>
       </c>
-      <c r="H20" s="12">
+      <c r="H20" s="13">
         <v>6</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="36"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11" t="s">
+      <c r="A21" s="28"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="32"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="23"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="36"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="15"/>
       <c r="E22" s="16" t="s">
         <v>61</v>
       </c>
       <c r="F22" s="17"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="32"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="23"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="36"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="28"/>
+      <c r="B23" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="12">
+      <c r="F23" s="9"/>
+      <c r="G23" s="13">
         <v>1</v>
       </c>
-      <c r="H23" s="12">
+      <c r="H23" s="13">
         <v>6</v>
       </c>
-      <c r="I23" s="32" t="s">
+      <c r="I23" s="23" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="36"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="32"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="36"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F25" s="17"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="32"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="23"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="36"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="28"/>
+      <c r="B26" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="7"/>
+      <c r="E26" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="12">
+      <c r="F26" s="9"/>
+      <c r="G26" s="13">
         <v>1</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="13">
         <v>6</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="36"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="32"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="23"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="36"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="32"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="23"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="36"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="28"/>
+      <c r="B29" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="12">
+      <c r="F29" s="9"/>
+      <c r="G29" s="13">
         <v>1</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="13">
         <v>40</v>
       </c>
-      <c r="I29" s="32" t="s">
+      <c r="I29" s="23" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="36"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="32"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="23"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="36"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="15"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="32"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="23"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="36"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="28"/>
+      <c r="B32" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="7" t="s">
+      <c r="D32" s="7"/>
+      <c r="E32" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="12">
+      <c r="F32" s="9"/>
+      <c r="G32" s="13">
         <v>1</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="13">
         <v>6</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="23" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="36"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="32"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="23"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="36"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
       <c r="F34" s="17"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="32"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="23"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="36"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="7" t="s">
+      <c r="E35" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G35" s="13">
         <v>1</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="13">
         <v>50</v>
       </c>
-      <c r="I35" s="32" t="s">
+      <c r="I35" s="23" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="36"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="11" t="s">
+      <c r="A36" s="28"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="32"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="23"/>
     </row>
     <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="36"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="15" t="s">
         <v>80</v>
       </c>
@@ -3062,58 +3054,58 @@
       <c r="F37" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="32"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="23"/>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="36"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="7" t="s">
+      <c r="E38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G38" s="13">
         <v>1</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="13">
         <v>30</v>
       </c>
-      <c r="I38" s="32" t="s">
+      <c r="I38" s="23" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="36"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11" t="s">
+      <c r="A39" s="28"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="32"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="23"/>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="37"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="15" t="s">
         <v>32</v>
       </c>
@@ -3123,360 +3115,360 @@
       <c r="F40" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="32"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="23"/>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="34" t="s">
+      <c r="A41" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="7" t="s">
+      <c r="D41" s="7"/>
+      <c r="E41" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="12">
+      <c r="F41" s="9"/>
+      <c r="G41" s="13">
         <v>1</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="13">
         <v>6</v>
       </c>
-      <c r="I41" s="32" t="s">
+      <c r="I41" s="23" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="36"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="11" t="s">
+      <c r="A42" s="28"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="32"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="23"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="36"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="15"/>
       <c r="E43" s="16" t="s">
         <v>88</v>
       </c>
       <c r="F43" s="17"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="32"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="23"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="36"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12" t="s">
+      <c r="A44" s="28"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="32"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="23"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="36"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="12" t="s">
+      <c r="A45" s="28"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="13"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="32"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="23"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="37"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
       <c r="D46" s="15"/>
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="32"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="23"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="25"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12" t="s">
+      <c r="A47" s="21"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="32"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="23"/>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="25"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="12" t="s">
+      <c r="A48" s="21"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="32"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="23"/>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="25"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="15"/>
       <c r="E49" s="16"/>
       <c r="F49" s="17"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="32"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="23"/>
     </row>
     <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="25"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12" t="s">
+      <c r="A50" s="21"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="32"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="23"/>
     </row>
     <row r="51" customHeight="1" spans="1:9">
-      <c r="A51" s="25"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="12" t="s">
+      <c r="A51" s="21"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="13"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="32"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="23"/>
     </row>
     <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="25"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="15"/>
       <c r="E52" s="16"/>
       <c r="F52" s="17"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="32"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="23"/>
     </row>
     <row r="53" customHeight="1" spans="1:9">
-      <c r="A53" s="25"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12" t="s">
+      <c r="A53" s="21"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="32"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="23"/>
     </row>
     <row r="54" customHeight="1" spans="1:9">
-      <c r="A54" s="25"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="12" t="s">
+      <c r="A54" s="21"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="13"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="32"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="23"/>
     </row>
     <row r="55" customHeight="1" spans="1:9">
-      <c r="A55" s="25"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="15"/>
       <c r="E55" s="16"/>
       <c r="F55" s="17"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="32"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="23"/>
     </row>
     <row r="56" customHeight="1" spans="1:9">
-      <c r="A56" s="25"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12" t="s">
+      <c r="A56" s="21"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="32"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="23"/>
     </row>
     <row r="57" customHeight="1" spans="1:9">
-      <c r="A57" s="25"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="12" t="s">
+      <c r="A57" s="21"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="13"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="32"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="23"/>
     </row>
     <row r="58" customHeight="1" spans="1:9">
-      <c r="A58" s="25"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
       <c r="D58" s="15"/>
       <c r="E58" s="16"/>
       <c r="F58" s="17"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="32"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="23"/>
     </row>
     <row r="59" customHeight="1" spans="1:9">
-      <c r="A59" s="25"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12" t="s">
+      <c r="A59" s="21"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="32"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="23"/>
     </row>
     <row r="60" customHeight="1" spans="1:9">
-      <c r="A60" s="25"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="12" t="s">
+      <c r="A60" s="21"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="32"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="23"/>
     </row>
     <row r="61" customHeight="1" spans="1:9">
-      <c r="A61" s="25"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
       <c r="D61" s="15"/>
       <c r="E61" s="16"/>
       <c r="F61" s="17"/>
-      <c r="G61" s="12"/>
-      <c r="H61" s="12"/>
-      <c r="I61" s="32"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="23"/>
     </row>
     <row r="62" customHeight="1" spans="1:9">
-      <c r="A62" s="25"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12" t="s">
+      <c r="A62" s="21"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="12"/>
-      <c r="H62" s="12"/>
-      <c r="I62" s="32"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="23"/>
     </row>
     <row r="63" customHeight="1" spans="1:9">
-      <c r="A63" s="25"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="12" t="s">
+      <c r="A63" s="21"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="32"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="23"/>
     </row>
     <row r="64" customHeight="1" spans="1:9">
-      <c r="A64" s="25"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
       <c r="D64" s="15"/>
       <c r="E64" s="16"/>
       <c r="F64" s="17"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="32"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="23"/>
     </row>
     <row r="65" customHeight="1" spans="1:9">
-      <c r="A65" s="25"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12" t="s">
+      <c r="A65" s="21"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="6"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="32"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="23"/>
     </row>
     <row r="66" customHeight="1" spans="1:9">
-      <c r="A66" s="25"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="12" t="s">
+      <c r="A66" s="21"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="13"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="32"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="23"/>
     </row>
     <row r="67" customHeight="1" spans="1:9">
-      <c r="A67" s="25"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="15"/>
       <c r="E67" s="16"/>
       <c r="F67" s="17"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="32"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -3612,144 +3604,144 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="24"/>
-    <col min="2" max="2" width="12.5" style="24" customWidth="1"/>
-    <col min="3" max="3" width="45.75" style="31" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="24"/>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="12.5" style="20" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="24" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="23" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="23" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="23" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="32"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="23"/>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="32"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="23"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="32"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="23"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="32"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="23"/>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="32"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="23"/>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="32"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="32"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="32"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="23"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="32"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="23"/>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="32"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="23"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="32"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="23"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="32"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="23"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="32"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="23"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="32"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="23"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="32"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="23"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="32"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="23"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="23"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="32"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="23"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3762,8 +3754,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1" outlineLevelCol="7"/>
@@ -3772,123 +3764,123 @@
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="4" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="57.125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="57.125" style="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="H1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="28">
+      <c r="C2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="22">
         <v>4</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="23" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="12"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="11" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="32"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="12"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="12"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="32"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="22">
         <v>1</v>
       </c>
-      <c r="H5" s="32" t="s">
+      <c r="H5" s="23" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="32"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="12"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="12"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="15" t="s">
         <v>105</v>
       </c>
@@ -3898,54 +3890,54 @@
       <c r="F7" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="32"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="28">
+      <c r="F8" s="9"/>
+      <c r="G8" s="22">
         <v>1</v>
       </c>
-      <c r="H8" s="32" t="s">
+      <c r="H8" s="23" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="12"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="32"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="12"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="12"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16" t="s">
         <v>111</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="32"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3982,282 +3974,282 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="36" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="24" customWidth="1"/>
-    <col min="2" max="2" width="31" style="24" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="31" customWidth="1"/>
-    <col min="5" max="16384" width="13.625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="20" customWidth="1"/>
+    <col min="2" max="2" width="31" style="20" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="24" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="24" customWidth="1"/>
+    <col min="5" max="16384" width="13.625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="21" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="23" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="23" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="23" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="23" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="23" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4271,7 +4263,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="C8" sqref="C8:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="7"/>
@@ -4281,66 +4273,66 @@
     <col min="8" max="8" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="24" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A2" s="27"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="21"/>
+      <c r="B2" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="28">
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="22">
         <v>1</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="13" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" s="24" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="11" t="s">
+    <row r="3" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A3" s="21"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" s="24" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A4" s="27"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="5"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="21"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="15" t="s">
         <v>138</v>
       </c>
@@ -4348,278 +4340,278 @@
       <c r="F4" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="27"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="27"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="27"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="27"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="27"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="27"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="27"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="29"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="27"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="27"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="27"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="29"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="27"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="27"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="27"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="27"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="27"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="27"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="27"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="27"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="15"/>
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="27"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="27"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="27"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
       <c r="F25" s="17"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="27"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="27"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="27"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="27"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="27"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="27"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="15"/>
       <c r="E31" s="16"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -4685,8 +4677,8 @@
   <sheetPr/>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1" outlineLevelCol="7"/>
@@ -4695,68 +4687,68 @@
     <col min="8" max="8" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="23" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A1" s="25" t="s">
+    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="24" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A2" s="27"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="21"/>
+      <c r="B2" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="28">
+      <c r="G2" s="22">
         <v>3</v>
       </c>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" s="24" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A3" s="27"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="11" t="s">
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A3" s="21"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="28"/>
-      <c r="H3" s="29"/>
-    </row>
-    <row r="4" s="24" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A4" s="27"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="5"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" s="20" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="21"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="6"/>
       <c r="D4" s="15" t="s">
         <v>140</v>
       </c>
@@ -4766,49 +4758,49 @@
       <c r="F4" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="27"/>
-      <c r="B5" s="12" t="s">
+      <c r="A5" s="21"/>
+      <c r="B5" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="6"/>
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="28">
+      <c r="G5" s="22">
         <v>1</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="27"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="11" t="s">
+      <c r="A6" s="21"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="27"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="5"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="6"/>
       <c r="D7" s="15" t="s">
         <v>140</v>
       </c>
@@ -4818,49 +4810,49 @@
       <c r="F7" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="27"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="6"/>
+      <c r="D8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G8" s="22">
         <v>1</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="27"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="11" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="27"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="6"/>
       <c r="D10" s="15" t="s">
         <v>137</v>
       </c>
@@ -4870,49 +4862,49 @@
       <c r="F10" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="27"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="22">
         <v>1</v>
       </c>
-      <c r="H11" s="29"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="27"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="11" t="s">
+      <c r="A12" s="21"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="29"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="27"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="6"/>
       <c r="D13" s="15" t="s">
         <v>144</v>
       </c>
@@ -4922,43 +4914,43 @@
       <c r="F13" s="17" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="27"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="28">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="22">
         <v>1</v>
       </c>
-      <c r="H14" s="29"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="27"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="11" t="s">
+      <c r="A15" s="21"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="27"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="5"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="6"/>
       <c r="D16" s="15" t="s">
         <v>111</v>
       </c>
@@ -4966,45 +4958,45 @@
       <c r="F16" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="27"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="21"/>
+      <c r="B17" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="6"/>
+      <c r="D17" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="28">
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="22">
         <v>2</v>
       </c>
-      <c r="H17" s="29"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="27"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="11" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="27"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="5"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="6"/>
       <c r="D19" s="15" t="s">
         <v>138</v>
       </c>
@@ -5012,49 +5004,49 @@
       <c r="F19" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="27"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="21"/>
+      <c r="B20" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
+      <c r="C20" s="6"/>
+      <c r="D20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="28">
+      <c r="G20" s="22">
         <v>2</v>
       </c>
-      <c r="H20" s="29"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="27"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="11" t="s">
+      <c r="A21" s="21"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="27"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="5"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="15" t="s">
         <v>137</v>
       </c>
@@ -5064,45 +5056,45 @@
       <c r="F22" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="27"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="28">
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="22">
         <v>4</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="13" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="27"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="11" t="s">
+      <c r="A24" s="21"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="27"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="5"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="15" t="s">
         <v>152</v>
       </c>
@@ -5112,89 +5104,89 @@
       <c r="F25" s="17" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="27"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="21"/>
+      <c r="B26" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="28">
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="22">
         <v>1</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="23" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="27"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="11" t="s">
+      <c r="A27" s="21"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="28"/>
-      <c r="H27" s="30"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="27"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="6"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16" t="s">
         <v>64</v>
       </c>
       <c r="F28" s="17"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="30"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
     </row>
     <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="27"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="21"/>
+      <c r="B29" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="28">
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="22">
         <v>1</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="13" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="27"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="11" t="s">
+      <c r="A30" s="21"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="27"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="6"/>
       <c r="D31" s="15" t="s">
         <v>28</v>
       </c>
@@ -5204,8 +5196,8 @@
       <c r="F31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -5272,7 +5264,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28" customHeight="1" outlineLevelCol="5"/>
@@ -5282,92 +5274,92 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="10"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="14"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="10"/>
-      <c r="B4" s="5"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="15"/>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
-      <c r="F4" s="14"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="10"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="14"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="14"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="10"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="15" t="s">
         <v>151</v>
       </c>
@@ -5377,39 +5369,39 @@
       <c r="E7" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="14"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="10"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="14"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="10"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="14"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="10"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="15" t="s">
         <v>151</v>
       </c>
@@ -5417,35 +5409,35 @@
       <c r="E10" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="14"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="10"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="14"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="10"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="14"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="18"/>
-      <c r="B13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="15" t="s">
         <v>153</v>
       </c>
@@ -5453,199 +5445,199 @@
       <c r="E13" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="12"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="20"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="5"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="12"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="21"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="12"/>
-      <c r="B16" s="5"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="6"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="12"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="20"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="5"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="12"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="21"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="12"/>
-      <c r="B19" s="5"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="6"/>
       <c r="C19" s="15"/>
       <c r="D19" s="16"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="12"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="20"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="5"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="12"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="21"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="12"/>
-      <c r="B22" s="5"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="15"/>
       <c r="D22" s="16"/>
       <c r="E22" s="17"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="12"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="20"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="5"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="12"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="21"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="12"/>
-      <c r="B25" s="5"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="6"/>
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
       <c r="E25" s="17"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="12"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="20"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="12"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="21"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="12"/>
-      <c r="B28" s="5"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="15"/>
       <c r="D28" s="16"/>
       <c r="E28" s="17"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="12"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="20"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="12"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="21"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="12"/>
-      <c r="B31" s="5"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16"/>
       <c r="E31" s="17"/>
-      <c r="F31" s="22"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
-      <c r="A32" s="12"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="20"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" customHeight="1" spans="1:6">
-      <c r="A33" s="12"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="21"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="11"/>
     </row>
     <row r="34" customHeight="1" spans="1:6">
-      <c r="A34" s="12"/>
-      <c r="B34" s="5"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="15"/>
       <c r="D34" s="16"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="22"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" customHeight="1" spans="1:6">
-      <c r="A35" s="12"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="20"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" customHeight="1" spans="1:6">
-      <c r="A36" s="12"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="21"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="11"/>
     </row>
     <row r="37" customHeight="1" spans="1:6">
-      <c r="A37" s="12"/>
-      <c r="B37" s="5"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="15"/>
       <c r="D37" s="16"/>
       <c r="E37" s="17"/>
-      <c r="F37" s="22"/>
+      <c r="F37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -5689,14 +5681,43 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="25" customHeight="1" outlineLevelRow="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.375" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/素材/策划案.xlsx
+++ b/素材/策划案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="10740" firstSheet="2" activeTab="3"/>
+    <workbookView windowWidth="18525" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="2" r:id="rId1"/>
@@ -522,10 +522,10 @@
     <t>raoist_robe_chestplate</t>
   </si>
   <si>
+    <t>raoist_robe_leggings</t>
+  </si>
+  <si>
     <t>raoist_robe_boots</t>
-  </si>
-  <si>
-    <t>raoist_robe_leggings</t>
   </si>
   <si>
     <t>中国僵尸</t>
@@ -543,9 +543,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -586,8 +586,23 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -600,14 +615,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -615,23 +622,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -655,8 +645,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -670,16 +661,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,15 +693,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,6 +702,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,25 +724,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,43 +736,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -814,25 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -844,7 +772,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,31 +856,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +886,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1147,6 +1147,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1177,17 +1186,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,9 +1212,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,22 +1230,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1252,10 +1252,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1264,142 +1264,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1836,8 +1833,8 @@
   <sheetPr/>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
@@ -1845,474 +1842,474 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="12.875" customWidth="1"/>
-    <col min="9" max="9" width="48.5" style="25" customWidth="1"/>
+    <col min="9" max="9" width="48.5" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="26" t="s">
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="39" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="37"/>
-      <c r="B3" s="33" t="s">
+      <c r="A3" s="36"/>
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="39" t="s">
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="38" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="26" t="s">
+      <c r="I4" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="22">
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="21">
         <v>2</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="37"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12" t="s">
+      <c r="A6" s="36"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="37"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="37"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="36"/>
+      <c r="B8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="22">
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="21">
         <v>2</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="37"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="12" t="s">
+      <c r="A9" s="36"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="37"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="37"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="36"/>
+      <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="13">
+      <c r="G11" s="8"/>
+      <c r="H11" s="12">
         <v>1</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="37"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13" t="s">
+      <c r="A12" s="36"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="23"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="37"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
+      <c r="A13" s="36"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="23"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="37"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="23"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="22"/>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="37"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="23"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="37"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="23"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="37"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="23"/>
+      <c r="A17" s="36"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="22"/>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="37"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="23"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="37"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="23"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="37"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="23"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="22"/>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="37"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="23"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="37"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="23"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="37"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="23"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="22"/>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="37"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="23"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="37"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="23"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="37"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="23"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="37"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="23"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="37"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="23"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="37"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="23"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="22"/>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="37"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="23"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="37"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="23"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="37"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="23"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="22"/>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="37"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="23"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="38"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="23"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="56">
@@ -2383,1092 +2380,1092 @@
   <sheetPr/>
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.175" style="27" customWidth="1"/>
-    <col min="2" max="2" width="9" style="20"/>
-    <col min="3" max="3" width="25.8416666666667" style="20" customWidth="1"/>
-    <col min="4" max="6" width="8.425" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.0916666666667" style="20" customWidth="1"/>
-    <col min="8" max="8" width="14.6" style="20" customWidth="1"/>
-    <col min="9" max="9" width="44.6583333333333" style="24" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="6.175" style="26" customWidth="1"/>
+    <col min="2" max="2" width="9" style="19"/>
+    <col min="3" max="3" width="25.8416666666667" style="19" customWidth="1"/>
+    <col min="4" max="6" width="8.425" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.0916666666667" style="19" customWidth="1"/>
+    <col min="8" max="8" width="14.6" style="19" customWidth="1"/>
+    <col min="9" max="9" width="44.6583333333333" style="23" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="18" customFormat="1" customHeight="1" spans="1:9">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>5</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>30</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="22" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="28"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="12" t="s">
+      <c r="A3" s="27"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="23"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="22"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="28"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="23"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="22"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="28"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>5</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>40</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="28"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="12" t="s">
+      <c r="A6" s="27"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="23"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="28"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="28"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="13">
+      <c r="F8" s="8"/>
+      <c r="G8" s="12">
         <v>1</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="12">
         <v>5</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="22" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="28"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="28"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="A10" s="27"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="23"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="22"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="28"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="27"/>
+      <c r="B11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="13">
+      <c r="F11" s="8"/>
+      <c r="G11" s="12">
         <v>1</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="12">
         <v>6</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="22" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="28"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="12" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="23"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="22"/>
     </row>
     <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="28"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="23"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="22"/>
     </row>
     <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="28"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="27"/>
+      <c r="B14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="13">
+      <c r="F14" s="8"/>
+      <c r="G14" s="12">
         <v>1</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>6</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="22" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="28"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13" t="s">
+      <c r="A15" s="27"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="23"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="28"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="23"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="22"/>
     </row>
     <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="28"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="13">
+      <c r="F17" s="8"/>
+      <c r="G17" s="12">
         <v>1</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="12">
         <v>6</v>
       </c>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="28"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="12" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="23"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="22"/>
     </row>
     <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="28"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16" t="s">
+      <c r="A19" s="27"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="23"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="22"/>
     </row>
     <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="28"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="27"/>
+      <c r="B20" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="13">
+      <c r="F20" s="8"/>
+      <c r="G20" s="12">
         <v>1</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="12">
         <v>6</v>
       </c>
-      <c r="I20" s="23" t="s">
+      <c r="I20" s="22" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="28"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="12" t="s">
+      <c r="A21" s="27"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="23"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="22"/>
     </row>
     <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="28"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16" t="s">
+      <c r="A22" s="27"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="23"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="22"/>
     </row>
     <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="28"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="27"/>
+      <c r="B23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="13">
+      <c r="F23" s="8"/>
+      <c r="G23" s="12">
         <v>1</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="12">
         <v>6</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="22" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="28"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13" t="s">
+      <c r="A24" s="27"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="23"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="22"/>
     </row>
     <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="28"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="23"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="22"/>
     </row>
     <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="28"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="27"/>
+      <c r="B26" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="13">
+      <c r="F26" s="8"/>
+      <c r="G26" s="12">
         <v>1</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="12">
         <v>6</v>
       </c>
-      <c r="I26" s="23" t="s">
+      <c r="I26" s="22" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="28"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13" t="s">
+      <c r="A27" s="27"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="23"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="22"/>
     </row>
     <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="28"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="23"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="22"/>
     </row>
     <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="28"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="27"/>
+      <c r="B29" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="13">
+      <c r="F29" s="8"/>
+      <c r="G29" s="12">
         <v>1</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="12">
         <v>40</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="22" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="28"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="23"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="22"/>
     </row>
     <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="28"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="23"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="22"/>
     </row>
     <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="28"/>
-      <c r="B32" s="13" t="s">
+      <c r="A32" s="27"/>
+      <c r="B32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="13">
+      <c r="F32" s="8"/>
+      <c r="G32" s="12">
         <v>1</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="12">
         <v>6</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="22" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="28"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="13" t="s">
+      <c r="A33" s="27"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="23"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="22"/>
     </row>
     <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="28"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="23"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="22"/>
     </row>
     <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="28"/>
-      <c r="B35" s="13" t="s">
+      <c r="A35" s="27"/>
+      <c r="B35" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="12">
         <v>1</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="12">
         <v>50</v>
       </c>
-      <c r="I35" s="23" t="s">
+      <c r="I35" s="22" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="28"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="12" t="s">
+      <c r="A36" s="27"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="13" t="s">
+      <c r="E36" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="23"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="22"/>
     </row>
     <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="28"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="15" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="23"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="22"/>
     </row>
     <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="28"/>
-      <c r="B38" s="23" t="s">
+      <c r="A38" s="27"/>
+      <c r="B38" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="12">
         <v>1</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <v>30</v>
       </c>
-      <c r="I38" s="23" t="s">
+      <c r="I38" s="22" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="39" customHeight="1" spans="1:9">
-      <c r="A39" s="28"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="23"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="22"/>
     </row>
     <row r="40" customHeight="1" spans="1:9">
-      <c r="A40" s="29"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="15" t="s">
+      <c r="A40" s="28"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="16" t="s">
+      <c r="E40" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="23"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="22"/>
     </row>
     <row r="41" customHeight="1" spans="1:9">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8" t="s">
+      <c r="D41" s="6"/>
+      <c r="E41" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="13">
+      <c r="F41" s="8"/>
+      <c r="G41" s="12">
         <v>1</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="12">
         <v>6</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="I41" s="22" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="42" customHeight="1" spans="1:9">
-      <c r="A42" s="28"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E42" s="13" t="s">
+      <c r="E42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="23"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="22"/>
     </row>
     <row r="43" customHeight="1" spans="1:9">
-      <c r="A43" s="28"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="16" t="s">
+      <c r="A43" s="27"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="17"/>
-      <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="23"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="22"/>
     </row>
     <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="28"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13" t="s">
+      <c r="A44" s="27"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D44" s="7"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="23"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="22"/>
     </row>
     <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="28"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="13" t="s">
+      <c r="A45" s="27"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="14"/>
-      <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="23"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="22"/>
     </row>
     <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="29"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="23"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="22"/>
     </row>
     <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="21"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13" t="s">
+      <c r="A47" s="20"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="23"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="22"/>
     </row>
     <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="21"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="13" t="s">
+      <c r="A48" s="20"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="14"/>
-      <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="23"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="22"/>
     </row>
     <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="21"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="23"/>
+      <c r="A49" s="20"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="22"/>
     </row>
     <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="21"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13" t="s">
+      <c r="A50" s="20"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="23"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="22"/>
     </row>
     <row r="51" customHeight="1" spans="1:9">
-      <c r="A51" s="21"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="13" t="s">
+      <c r="A51" s="20"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="14"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="23"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="22"/>
     </row>
     <row r="52" customHeight="1" spans="1:9">
-      <c r="A52" s="21"/>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="23"/>
+      <c r="A52" s="20"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="22"/>
     </row>
     <row r="53" customHeight="1" spans="1:9">
-      <c r="A53" s="21"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13" t="s">
+      <c r="A53" s="20"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="23"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="22"/>
     </row>
     <row r="54" customHeight="1" spans="1:9">
-      <c r="A54" s="21"/>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="13" t="s">
+      <c r="A54" s="20"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="14"/>
-      <c r="G54" s="13"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="23"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="22"/>
     </row>
     <row r="55" customHeight="1" spans="1:9">
-      <c r="A55" s="21"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="13"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="23"/>
+      <c r="A55" s="20"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="22"/>
     </row>
     <row r="56" customHeight="1" spans="1:9">
-      <c r="A56" s="21"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13" t="s">
+      <c r="A56" s="20"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="13"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="23"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="22"/>
     </row>
     <row r="57" customHeight="1" spans="1:9">
-      <c r="A57" s="21"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="13" t="s">
+      <c r="A57" s="20"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="13"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="23"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="22"/>
     </row>
     <row r="58" customHeight="1" spans="1:9">
-      <c r="A58" s="21"/>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="13"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="23"/>
+      <c r="A58" s="20"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="22"/>
     </row>
     <row r="59" customHeight="1" spans="1:9">
-      <c r="A59" s="21"/>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13" t="s">
+      <c r="A59" s="20"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="23"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="22"/>
     </row>
     <row r="60" customHeight="1" spans="1:9">
-      <c r="A60" s="21"/>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="13" t="s">
+      <c r="A60" s="20"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="14"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="23"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="22"/>
     </row>
     <row r="61" customHeight="1" spans="1:9">
-      <c r="A61" s="21"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="13"/>
-      <c r="I61" s="23"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="22"/>
     </row>
     <row r="62" customHeight="1" spans="1:9">
-      <c r="A62" s="21"/>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13" t="s">
+      <c r="A62" s="20"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="23"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="22"/>
     </row>
     <row r="63" customHeight="1" spans="1:9">
-      <c r="A63" s="21"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="12"/>
-      <c r="E63" s="13" t="s">
+      <c r="A63" s="20"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="14"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="23"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="22"/>
     </row>
     <row r="64" customHeight="1" spans="1:9">
-      <c r="A64" s="21"/>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="23"/>
+      <c r="A64" s="20"/>
+      <c r="B64" s="12"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="22"/>
     </row>
     <row r="65" customHeight="1" spans="1:9">
-      <c r="A65" s="21"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13" t="s">
+      <c r="A65" s="20"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="23"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="22"/>
     </row>
     <row r="66" customHeight="1" spans="1:9">
-      <c r="A66" s="21"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="13" t="s">
+      <c r="A66" s="20"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="14"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="23"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="22"/>
     </row>
     <row r="67" customHeight="1" spans="1:9">
-      <c r="A67" s="21"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="23"/>
+      <c r="A67" s="20"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="120">
@@ -3609,139 +3606,139 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="20"/>
-    <col min="2" max="2" width="12.5" style="20" customWidth="1"/>
-    <col min="3" max="3" width="45.75" style="24" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="20"/>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="12.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="45.75" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="23"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="22"/>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="23"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="23"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="22"/>
     </row>
     <row r="7" customHeight="1" spans="1:3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="23"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" customHeight="1" spans="1:3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="23"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="22"/>
     </row>
     <row r="9" customHeight="1" spans="1:3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="23"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="22"/>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="23"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="23"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="22"/>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="23"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="22"/>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="23"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" customHeight="1" spans="1:3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="23"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="22"/>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="23"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="22"/>
     </row>
     <row r="16" customHeight="1" spans="1:3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="22"/>
     </row>
     <row r="17" customHeight="1" spans="1:3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="22"/>
     </row>
     <row r="18" customHeight="1" spans="1:3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" customHeight="1" spans="1:3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="22"/>
     </row>
     <row r="20" customHeight="1" spans="1:3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="23"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="22"/>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="22"/>
     </row>
     <row r="22" customHeight="1" spans="1:3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="23"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3754,8 +3751,8 @@
   <sheetPr/>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23" customHeight="1" outlineLevelCol="7"/>
@@ -3764,180 +3761,180 @@
     <col min="2" max="2" width="19.875" customWidth="1"/>
     <col min="4" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="57.125" style="25" customWidth="1"/>
+    <col min="8" max="8" width="57.125" style="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="H1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="22">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="21">
         <v>4</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="22" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="13"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="12" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14" t="s">
+      <c r="E3" s="12"/>
+      <c r="F3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="13"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>1</v>
       </c>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="22" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="13"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12" t="s">
+      <c r="A6" s="12"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="13"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="9"/>
-      <c r="G8" s="22">
+      <c r="F8" s="8"/>
+      <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="22" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="13"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="13"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3974,282 +3971,282 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="36" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="20" customWidth="1"/>
-    <col min="2" max="2" width="31" style="20" customWidth="1"/>
-    <col min="3" max="3" width="42.875" style="24" customWidth="1"/>
-    <col min="4" max="4" width="40.625" style="24" customWidth="1"/>
-    <col min="5" max="16384" width="13.625" style="20" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="31" style="19" customWidth="1"/>
+    <col min="3" max="3" width="42.875" style="23" customWidth="1"/>
+    <col min="4" max="4" width="40.625" style="23" customWidth="1"/>
+    <col min="5" max="16384" width="13.625" style="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="22" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="22" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="22" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
     </row>
     <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
     </row>
     <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
     </row>
     <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
     </row>
     <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
     </row>
     <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
     </row>
     <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
     </row>
     <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
     </row>
     <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
     </row>
     <row r="24" customHeight="1" spans="1:4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
     </row>
     <row r="25" customHeight="1" spans="1:4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" customHeight="1" spans="1:4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" customHeight="1" spans="1:4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" customHeight="1" spans="1:4">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
     <row r="29" customHeight="1" spans="1:4">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
     </row>
     <row r="30" customHeight="1" spans="1:4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
     </row>
     <row r="31" customHeight="1" spans="1:4">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
     </row>
     <row r="32" customHeight="1" spans="1:4">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
     </row>
     <row r="33" customHeight="1" spans="1:4">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
     </row>
     <row r="34" customHeight="1" spans="1:4">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
     </row>
     <row r="35" customHeight="1" spans="1:4">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" customHeight="1" spans="1:4">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" customHeight="1" spans="1:4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4263,7 +4260,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C10"/>
+      <selection activeCell="C11" sqref="C11:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="7"/>
@@ -4273,345 +4270,345 @@
     <col min="8" max="8" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="18" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A2" s="21"/>
-      <c r="B2" s="13" t="s">
+    <row r="2" s="19" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="20"/>
+      <c r="B2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="22">
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="21">
         <v>1</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" s="20" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A3" s="21"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="12" t="s">
+    <row r="3" s="19" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A3" s="20"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" s="20" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A4" s="21"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" s="19" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="20"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="21"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="13"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="21"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="13"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="21"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="21"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="13"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="21"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="13"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="21"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="13"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="21"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="13"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="21"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="13"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="21"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="13"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="21"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="13"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="21"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="13"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="21"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="13"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="21"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="13"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="21"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="13"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="21"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="13"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="21"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="13"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="21"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="13"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="21"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="13"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="21"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="13"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="21"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="13"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="21"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="13"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="21"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="13"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="21"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="13"/>
+      <c r="A27" s="20"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="21"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="13"/>
+      <c r="A28" s="20"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="21"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="13"/>
+      <c r="A29" s="20"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="21"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="13"/>
+      <c r="A30" s="20"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="21"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="13"/>
+      <c r="A31" s="20"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -4687,517 +4684,517 @@
     <col min="8" max="8" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+    <row r="1" s="18" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="20" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A2" s="21"/>
-      <c r="B2" s="13" t="s">
+    <row r="2" s="19" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="20"/>
+      <c r="B2" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="21">
         <v>3</v>
       </c>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" s="20" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A3" s="21"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="12" t="s">
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" s="19" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A3" s="20"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="13"/>
-    </row>
-    <row r="4" s="20" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A4" s="21"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15" t="s">
+      <c r="G3" s="21"/>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" s="19" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A4" s="20"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="22"/>
-      <c r="H4" s="13"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="12"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="21"/>
-      <c r="B5" s="13" t="s">
+      <c r="A5" s="20"/>
+      <c r="B5" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="5"/>
+      <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="21">
         <v>1</v>
       </c>
-      <c r="H5" s="13"/>
+      <c r="H5" s="12"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="21"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="12" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="21"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="15" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="13"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="21"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="21">
         <v>1</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="21"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="12" t="s">
+      <c r="A9" s="20"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="13"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="21"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="15" t="s">
+      <c r="A10" s="20"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="21"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="21">
         <v>1</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="21"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="12" t="s">
+      <c r="A12" s="20"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="13"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" customHeight="1" spans="1:8">
-      <c r="A13" s="21"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="15" t="s">
+      <c r="A13" s="20"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="13"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" customHeight="1" spans="1:8">
-      <c r="A14" s="21"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="20"/>
+      <c r="B14" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="22">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="21">
         <v>1</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" customHeight="1" spans="1:8">
-      <c r="A15" s="21"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="12" t="s">
+      <c r="A15" s="20"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="13"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" customHeight="1" spans="1:8">
-      <c r="A16" s="21"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="15" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="15"/>
+      <c r="F16" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="G16" s="22"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" customHeight="1" spans="1:8">
-      <c r="A17" s="21"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="20"/>
+      <c r="B17" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="22">
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="21">
         <v>2</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" customHeight="1" spans="1:8">
-      <c r="A18" s="21"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="12" t="s">
+      <c r="A18" s="20"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G18" s="22"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" customHeight="1" spans="1:8">
-      <c r="A19" s="21"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="15" t="s">
+      <c r="A19" s="20"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17" t="s">
+      <c r="E19" s="15"/>
+      <c r="F19" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="22"/>
-      <c r="H19" s="13"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" customHeight="1" spans="1:8">
-      <c r="A20" s="21"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="5"/>
+      <c r="D20" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="21">
         <v>2</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" customHeight="1" spans="1:8">
-      <c r="A21" s="21"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="12" t="s">
+      <c r="A21" s="20"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="E21" s="13" t="s">
+      <c r="E21" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="22"/>
-      <c r="H21" s="13"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" customHeight="1" spans="1:8">
-      <c r="A22" s="21"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="15" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="F22" s="17" t="s">
+      <c r="F22" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="G22" s="22"/>
-      <c r="H22" s="13"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" customHeight="1" spans="1:8">
-      <c r="A23" s="21"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="20"/>
+      <c r="B23" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="22">
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="21">
         <v>4</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="1:8">
-      <c r="A24" s="21"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="12" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="13"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" customHeight="1" spans="1:8">
-      <c r="A25" s="21"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="15" t="s">
+      <c r="A25" s="20"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="G25" s="22"/>
-      <c r="H25" s="13"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" customHeight="1" spans="1:8">
-      <c r="A26" s="21"/>
-      <c r="B26" s="13" t="s">
+      <c r="A26" s="20"/>
+      <c r="B26" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="22">
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="21">
         <v>1</v>
       </c>
-      <c r="H26" s="23" t="s">
+      <c r="H26" s="22" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="1:8">
-      <c r="A27" s="21"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="12" t="s">
+      <c r="A27" s="20"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="13" t="s">
+      <c r="E27" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G27" s="22"/>
-      <c r="H27" s="23"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" customHeight="1" spans="1:8">
-      <c r="A28" s="21"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16" t="s">
+      <c r="A28" s="20"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" customHeight="1" spans="1:8">
-      <c r="A29" s="21"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="22">
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="21">
         <v>1</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="1:8">
-      <c r="A30" s="21"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="12" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G30" s="22"/>
-      <c r="H30" s="13"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" customHeight="1" spans="1:8">
-      <c r="A31" s="21"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="15" t="s">
+      <c r="A31" s="20"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E31" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G31" s="22"/>
-      <c r="H31" s="13"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -5264,7 +5261,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B11" sqref="B11:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="28" customHeight="1" outlineLevelCol="5"/>
@@ -5274,370 +5271,370 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="12" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="11"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="11"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="11"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="15" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="6" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="11"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="15" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="F10" s="11"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="6" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="11"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="18"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="15" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="16"/>
-      <c r="E13" s="17" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="13"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="5"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="13"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="13"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="13"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="5"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="13"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="11"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="13"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="18"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="13"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="5"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="13"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="11"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="13"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="18"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="13"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="5"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="13"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="13"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="17"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="13"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="5"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="13"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="11"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="13"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="13"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="5"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="13"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="11"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="13"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="18"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="17"/>
     </row>
     <row r="32" customHeight="1" spans="1:6">
-      <c r="A32" s="13"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="5"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" customHeight="1" spans="1:6">
-      <c r="A33" s="13"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" customHeight="1" spans="1:6">
-      <c r="A34" s="13"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="18"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="17"/>
     </row>
     <row r="35" customHeight="1" spans="1:6">
-      <c r="A35" s="13"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="5"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" customHeight="1" spans="1:6">
-      <c r="A36" s="13"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="11"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" customHeight="1" spans="1:6">
-      <c r="A37" s="13"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -5696,10 +5693,10 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -5707,7 +5704,7 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B2" s="1" t="s">
